--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FFC37C-0B90-4BB9-8D38-41F53027C42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44492638-A603-47B3-A30B-1FF4161D546D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GOLD" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="208">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="171">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -295,24 +292,6 @@
     <t>0457 744 324</t>
   </si>
   <si>
-    <t>Bright, Jacob</t>
-  </si>
-  <si>
-    <t>Bright, Andrew</t>
-  </si>
-  <si>
-    <t>0425 817 084</t>
-  </si>
-  <si>
-    <t>youngandbright@optusnet.com.au</t>
-  </si>
-  <si>
-    <t>Bright, Helen</t>
-  </si>
-  <si>
-    <t>0438 729 190</t>
-  </si>
-  <si>
     <t>Calcraft, Benjamin</t>
   </si>
   <si>
@@ -343,18 +322,6 @@
     <t>0411 285 220</t>
   </si>
   <si>
-    <t>Gerada, Corey</t>
-  </si>
-  <si>
-    <t>Gerada, Leon</t>
-  </si>
-  <si>
-    <t>0432 092 051</t>
-  </si>
-  <si>
-    <t>neonleon38@hotmail.com</t>
-  </si>
-  <si>
     <t>Jordy, Stafford</t>
   </si>
   <si>
@@ -478,9 +445,6 @@
     <t>0431 092 850</t>
   </si>
   <si>
-    <t>gnstephen1@bigpond.com</t>
-  </si>
-  <si>
     <t>Stephen, Gary</t>
   </si>
   <si>
@@ -520,136 +484,61 @@
     <t>0409 226 477</t>
   </si>
   <si>
-    <t>suzandpjwilliams@gmail.com</t>
-  </si>
-  <si>
     <t>Williams, Paul</t>
   </si>
   <si>
     <t>0410 436 268</t>
   </si>
   <si>
-    <t>Historical Players</t>
-  </si>
-  <si>
-    <t>Bannan, Daniel</t>
-  </si>
-  <si>
-    <t>Gielen, Wendy</t>
-  </si>
-  <si>
-    <t>0414 747 608</t>
-  </si>
-  <si>
-    <t>wendygielen11@gmail.com</t>
-  </si>
-  <si>
-    <t>Bannan, Grant</t>
-  </si>
-  <si>
-    <t>0414 442 294</t>
-  </si>
-  <si>
-    <t>Bellingham, Tait</t>
-  </si>
-  <si>
-    <t>Black, Matt</t>
-  </si>
-  <si>
-    <t>0487 262 228</t>
-  </si>
-  <si>
-    <t>mattmoo8@bigpong.net.au</t>
-  </si>
-  <si>
-    <t>Dewar, Daniel</t>
-  </si>
-  <si>
-    <t>Dewar, Rebecca</t>
-  </si>
-  <si>
-    <t>0408 102 530</t>
-  </si>
-  <si>
-    <t>nrdewar@bigpond.net.au</t>
-  </si>
-  <si>
-    <t>Dewar, Nathan</t>
-  </si>
-  <si>
-    <t>0417 309 089</t>
-  </si>
-  <si>
-    <t>Kordatou, Bill</t>
-  </si>
-  <si>
-    <t>Morris, Jacob</t>
-  </si>
-  <si>
-    <t>Morris, Wayne</t>
-  </si>
-  <si>
-    <t>0425 783 139</t>
-  </si>
-  <si>
-    <t>waynemichelle_m@bigpond.com</t>
-  </si>
-  <si>
-    <t>Morris, Michelle</t>
-  </si>
-  <si>
-    <t>0425 783 239</t>
-  </si>
-  <si>
-    <t>Nelsson, Brandon</t>
-  </si>
-  <si>
-    <t>Nelsson, Peter</t>
-  </si>
-  <si>
-    <t>0417 339 311</t>
-  </si>
-  <si>
-    <t>peternelsson@bigpond.com</t>
-  </si>
-  <si>
-    <t>nelsson, peter</t>
-  </si>
-  <si>
-    <t>Petropoulos, Nick</t>
-  </si>
-  <si>
-    <t>Petropoulos, Mr</t>
-  </si>
-  <si>
-    <t>0421 730 133</t>
-  </si>
-  <si>
-    <t>alexnpetropoulos@hotmail.com</t>
-  </si>
-  <si>
-    <t>Wiseman, Ryan</t>
-  </si>
-  <si>
-    <t>Wiseman, Darryl</t>
-  </si>
-  <si>
-    <t>0400 955 919</t>
-  </si>
-  <si>
-    <t>darrylw5@bigpond.com</t>
-  </si>
-  <si>
-    <t>Wiseman, Sandie</t>
-  </si>
-  <si>
-    <t>0418 537 030</t>
+    <t>Registered Players</t>
+  </si>
+  <si>
+    <t>neridastephen1@gmail.com</t>
+  </si>
+  <si>
+    <t>suzwilliams337@gmail.com</t>
+  </si>
+  <si>
+    <t>Priems, Blair</t>
+  </si>
+  <si>
+    <t>Priems, Rob</t>
+  </si>
+  <si>
+    <t>0410 289 151</t>
+  </si>
+  <si>
+    <t>vanessaandrob1@bigpond.com</t>
+  </si>
+  <si>
+    <t>Priems, Vanessa</t>
+  </si>
+  <si>
+    <t>0429 872 345</t>
+  </si>
+  <si>
+    <t>Stallworthy, Jaylen</t>
+  </si>
+  <si>
+    <t>Cahill, Amy</t>
+  </si>
+  <si>
+    <t>0403 019 991</t>
+  </si>
+  <si>
+    <t>amy_louise07@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cahill, Jason</t>
+  </si>
+  <si>
+    <t>0402 226 811</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1142,6 +1031,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1149,7 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1504,8 +1393,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1521,1000 +1410,773 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>110</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>114</v>
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D43" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" t="s">
-        <v>197</v>
-      </c>
-      <c r="F44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" t="s">
-        <v>205</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44492638-A603-47B3-A30B-1FF4161D546D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F692E2-CA70-4B9B-88E2-C2E93DBAB345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GOLD" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1408,7 +1408,7 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2160,7 +2160,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>

--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F692E2-CA70-4B9B-88E2-C2E93DBAB345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36248B7-075C-4A38-BC55-CED8067F44BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GOLD" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2151,30 +2151,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>

--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36248B7-075C-4A38-BC55-CED8067F44BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA998E-9E55-4638-AD6B-DC226BE382AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GOLD" sheetId="1" r:id="rId1"/>
@@ -1398,17 +1398,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>147</v>
       </c>

--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA998E-9E55-4638-AD6B-DC226BE382AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9477016-6A0D-4844-879C-6AE99DBD9F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GOLD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -271,57 +271,6 @@
     <t>0431 811 976</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Alexander, Brayden</t>
-  </si>
-  <si>
-    <t>Alexander, Kirrily</t>
-  </si>
-  <si>
-    <t>0410 507 136</t>
-  </si>
-  <si>
-    <t>azkizalexander@bigpond.com.au</t>
-  </si>
-  <si>
-    <t>Alexander, Aaron</t>
-  </si>
-  <si>
-    <t>0457 744 324</t>
-  </si>
-  <si>
-    <t>Calcraft, Benjamin</t>
-  </si>
-  <si>
-    <t>Paice, Lisa</t>
-  </si>
-  <si>
-    <t>0430 497 791</t>
-  </si>
-  <si>
-    <t>lisapaice@gmail.com</t>
-  </si>
-  <si>
-    <t>Christensen, Dylan</t>
-  </si>
-  <si>
-    <t>CHRISTENSEN, TONY</t>
-  </si>
-  <si>
-    <t>0412 123 344</t>
-  </si>
-  <si>
-    <t>bigton6@gmail.com</t>
-  </si>
-  <si>
-    <t>Christensen, sue</t>
-  </si>
-  <si>
-    <t>0411 285 220</t>
-  </si>
-  <si>
     <t>Jordy, Stafford</t>
   </si>
   <si>
@@ -337,24 +286,6 @@
     <t>0450 784 904</t>
   </si>
   <si>
-    <t>Lalor, Joshua</t>
-  </si>
-  <si>
-    <t>Lalor, Garry</t>
-  </si>
-  <si>
-    <t>0476 459 372</t>
-  </si>
-  <si>
-    <t>garry.lalor@icloud.com</t>
-  </si>
-  <si>
-    <t>Beaton, Lorraine</t>
-  </si>
-  <si>
-    <t>0409 864 362</t>
-  </si>
-  <si>
     <t>Lech, Xavier</t>
   </si>
   <si>
@@ -367,21 +298,6 @@
     <t>whiskk@gmail.com</t>
   </si>
   <si>
-    <t>Martinus, Romesh</t>
-  </si>
-  <si>
-    <t>Martinus, Darren</t>
-  </si>
-  <si>
-    <t>0421 327 548</t>
-  </si>
-  <si>
-    <t>martinusdsl@dodo.com.au</t>
-  </si>
-  <si>
-    <t>Martinus, Neomi</t>
-  </si>
-  <si>
     <t>Mason, Nicholas</t>
   </si>
   <si>
@@ -400,24 +316,6 @@
     <t>0408 753 484</t>
   </si>
   <si>
-    <t>Moulden, Sam</t>
-  </si>
-  <si>
-    <t>Moulden, Rebecca</t>
-  </si>
-  <si>
-    <t>0488 025 306</t>
-  </si>
-  <si>
-    <t>mouldenr@hotmail.com</t>
-  </si>
-  <si>
-    <t>Moulden, Stuart</t>
-  </si>
-  <si>
-    <t>0488 037 633</t>
-  </si>
-  <si>
     <t>Paterson, William</t>
   </si>
   <si>
@@ -451,30 +349,6 @@
     <t>0417 059 038</t>
   </si>
   <si>
-    <t>Szeicz, Maximilian</t>
-  </si>
-  <si>
-    <t>Szeicz, Ildiko</t>
-  </si>
-  <si>
-    <t>0430 622 043</t>
-  </si>
-  <si>
-    <t>szeiczildiko@hotmail.com</t>
-  </si>
-  <si>
-    <t>Waterworth, Joshua</t>
-  </si>
-  <si>
-    <t>Waterworth, Mark</t>
-  </si>
-  <si>
-    <t>0414 885 150</t>
-  </si>
-  <si>
-    <t>markwaterworth@gmail.com</t>
-  </si>
-  <si>
     <t>Williams, Caleb</t>
   </si>
   <si>
@@ -499,40 +373,58 @@
     <t>suzwilliams337@gmail.com</t>
   </si>
   <si>
-    <t>Priems, Blair</t>
-  </si>
-  <si>
-    <t>Priems, Rob</t>
-  </si>
-  <si>
-    <t>0410 289 151</t>
-  </si>
-  <si>
-    <t>vanessaandrob1@bigpond.com</t>
-  </si>
-  <si>
-    <t>Priems, Vanessa</t>
-  </si>
-  <si>
-    <t>0429 872 345</t>
-  </si>
-  <si>
-    <t>Stallworthy, Jaylen</t>
-  </si>
-  <si>
-    <t>Cahill, Amy</t>
-  </si>
-  <si>
-    <t>0403 019 991</t>
-  </si>
-  <si>
-    <t>amy_louise07@hotmail.com</t>
-  </si>
-  <si>
-    <t>Cahill, Jason</t>
-  </si>
-  <si>
-    <t>0402 226 811</t>
+    <t>sallyanne70@gmail.com</t>
+  </si>
+  <si>
+    <t>dderham@ldb.com.au</t>
+  </si>
+  <si>
+    <t>mhiggins@legalsuper.com.au</t>
+  </si>
+  <si>
+    <t>keiffy78@hotmail.com</t>
+  </si>
+  <si>
+    <t>cindy@mahdlo.com.au</t>
+  </si>
+  <si>
+    <t>danea74@gmail.com</t>
+  </si>
+  <si>
+    <t>petrasales777@gmail.com</t>
+  </si>
+  <si>
+    <t>gnstephen1@bigpond.com</t>
+  </si>
+  <si>
+    <t>Sutton, Taj</t>
+  </si>
+  <si>
+    <t>Sutton, Glenn</t>
+  </si>
+  <si>
+    <t>0438 919 991</t>
+  </si>
+  <si>
+    <t>glenn.sutton05@gmail.com</t>
+  </si>
+  <si>
+    <t>0458 978 785</t>
+  </si>
+  <si>
+    <t>pjska@hotmail.com</t>
+  </si>
+  <si>
+    <t>Wilson, Jarrad</t>
+  </si>
+  <si>
+    <t>Wilson, Stephanie</t>
+  </si>
+  <si>
+    <t>0413 681 763</t>
+  </si>
+  <si>
+    <t>steph74.sw@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1394,23 +1286,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1423,7 +1315,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1466,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1489,10 +1381,10 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1512,10 +1404,10 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1535,44 +1427,44 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1581,33 +1473,33 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1630,30 +1522,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1696,10 +1588,10 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1719,10 +1611,10 @@
         <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1742,10 +1634,10 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1765,10 +1657,10 @@
         <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1788,375 +1680,160 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>82</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G23" t="s">
         <v>10</v>
       </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" t="s">
-        <v>150</v>
-      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9477016-6A0D-4844-879C-6AE99DBD9F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93544009-0E12-4881-86D5-E21DE88D59EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GOLD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -415,16 +415,73 @@
     <t>pjska@hotmail.com</t>
   </si>
   <si>
-    <t>Wilson, Jarrad</t>
-  </si>
-  <si>
-    <t>Wilson, Stephanie</t>
-  </si>
-  <si>
-    <t>0413 681 763</t>
-  </si>
-  <si>
-    <t>steph74.sw@gmail.com</t>
+    <t>Alexander, Brayden</t>
+  </si>
+  <si>
+    <t>Alexander, Kirrily</t>
+  </si>
+  <si>
+    <t>0410 507 136</t>
+  </si>
+  <si>
+    <t>kirrilyalexander@gmail.com</t>
+  </si>
+  <si>
+    <t>Alexander, Aaron</t>
+  </si>
+  <si>
+    <t>0457 744 324</t>
+  </si>
+  <si>
+    <t>Barton, Lachlan</t>
+  </si>
+  <si>
+    <t>Barton, Stewart</t>
+  </si>
+  <si>
+    <t>0448 030 117</t>
+  </si>
+  <si>
+    <t>nikki_barton@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>Barton, Nikki</t>
+  </si>
+  <si>
+    <t>0409 190 027</t>
+  </si>
+  <si>
+    <t>Glenn, Bailey</t>
+  </si>
+  <si>
+    <t>Vanlooy, Bianca</t>
+  </si>
+  <si>
+    <t>0448 137 205</t>
+  </si>
+  <si>
+    <t>bvanlooy1982@hotmail.com</t>
+  </si>
+  <si>
+    <t>Stallworthy, Jaylen</t>
+  </si>
+  <si>
+    <t>Cahill, Amy</t>
+  </si>
+  <si>
+    <t>0403 019 991</t>
+  </si>
+  <si>
+    <t>amy_louise07@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cahill, Jason</t>
+  </si>
+  <si>
+    <t>0402 226 811</t>
+  </si>
+  <si>
+    <t>jason@bigeventpicnictables.com.au</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1340,22 +1397,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1363,108 +1420,108 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1478,275 +1535,275 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1754,81 +1811,141 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93544009-0E12-4881-86D5-E21DE88D59EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D0423C-E037-489E-B5F6-7779E6464DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="148">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -433,36 +433,6 @@
     <t>0457 744 324</t>
   </si>
   <si>
-    <t>Barton, Lachlan</t>
-  </si>
-  <si>
-    <t>Barton, Stewart</t>
-  </si>
-  <si>
-    <t>0448 030 117</t>
-  </si>
-  <si>
-    <t>nikki_barton@optusnet.com.au</t>
-  </si>
-  <si>
-    <t>Barton, Nikki</t>
-  </si>
-  <si>
-    <t>0409 190 027</t>
-  </si>
-  <si>
-    <t>Glenn, Bailey</t>
-  </si>
-  <si>
-    <t>Vanlooy, Bianca</t>
-  </si>
-  <si>
-    <t>0448 137 205</t>
-  </si>
-  <si>
-    <t>bvanlooy1982@hotmail.com</t>
-  </si>
-  <si>
     <t>Stallworthy, Jaylen</t>
   </si>
   <si>
@@ -482,6 +452,18 @@
   </si>
   <si>
     <t>jason@bigeventpicnictables.com.au</t>
+  </si>
+  <si>
+    <t>Wilson, Jarrad</t>
+  </si>
+  <si>
+    <t>Wilson, Stephanie</t>
+  </si>
+  <si>
+    <t>0413 681 763</t>
+  </si>
+  <si>
+    <t>steph74.sw@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1343,9 +1325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1443,91 +1427,91 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1535,416 +1519,393 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/static/contact/U17B-GOLD.xlsx
+++ b/static/contact/U17B-GOLD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D0423C-E037-489E-B5F6-7779E6464DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F872A6-4B2E-4767-AA79-5F891F99DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="156">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -464,6 +464,30 @@
   </si>
   <si>
     <t>steph74.sw@gmail.com</t>
+  </si>
+  <si>
+    <t>Burridge, Corey</t>
+  </si>
+  <si>
+    <t>Burridge, Stephen</t>
+  </si>
+  <si>
+    <t>0433 582 625</t>
+  </si>
+  <si>
+    <t>stephen_burridge@bigpond.com</t>
+  </si>
+  <si>
+    <t>Waterworth, Joshua</t>
+  </si>
+  <si>
+    <t>Waterworth, Mark</t>
+  </si>
+  <si>
+    <t>0414 885 150</t>
+  </si>
+  <si>
+    <t>markwaterworth@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1325,11 +1349,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1427,114 +1449,114 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1542,298 +1564,298 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1841,70 +1863,116 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
         <v>10</v>
       </c>
     </row>
